--- a/Excel/Carnegative.xlsx
+++ b/Excel/Carnegative.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>Username</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Dropoffplace</t>
   </si>
   <si>
-    <t>DUBAI AIRPORT, DUBAI, United Arab Emirates</t>
-  </si>
-  <si>
     <t>CcvdPickupTime1</t>
   </si>
   <si>
@@ -213,12 +210,6 @@
     <t>CcvdDropoffTime3</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>CcvdBookingReference</t>
   </si>
   <si>
@@ -231,9 +222,6 @@
     <t>CtfdCarRate</t>
   </si>
   <si>
-    <t>HDFC</t>
-  </si>
-  <si>
     <t>AatAmount</t>
   </si>
   <si>
@@ -259,6 +247,9 @@
   </si>
   <si>
     <t>Norm</t>
+  </si>
+  <si>
+    <t>AIRPORT</t>
   </si>
 </sst>
 </file>
@@ -641,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AR12" sqref="AR12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -764,37 +755,37 @@
         <v>54</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="AK1" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AL1" s="2" t="s">
         <v>16</v>
@@ -803,28 +794,28 @@
         <v>17</v>
       </c>
       <c r="AN1" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AO1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="AP1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AU1" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU1" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="AV1" s="10" t="s">
         <v>21</v>
@@ -904,46 +895,28 @@
         <v>50</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="6"/>
       <c r="AJ2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AM2" s="7" t="s">
         <v>36</v>
@@ -951,14 +924,12 @@
       <c r="AN2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AO2" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="AO2" s="9"/>
       <c r="AP2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AR2" s="8" t="s">
         <v>29</v>
@@ -973,7 +944,7 @@
         <v>38</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
